--- a/Métriques discriminantes/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,69 +959,69 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>hi_distance_full_otip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>212.2127966195529</v>
+        <v>3101.856167357677</v>
       </c>
       <c r="C16" t="n">
-        <v>197.5681176484451</v>
+        <v>3350.017543582269</v>
       </c>
       <c r="D16" t="n">
-        <v>7.41</v>
+        <v>-7.41</v>
       </c>
       <c r="E16" t="n">
-        <v>11.55440508780838</v>
+        <v>96.66890102150535</v>
       </c>
       <c r="F16" t="n">
-        <v>12.53136109583805</v>
+        <v>235.6447843277602</v>
       </c>
       <c r="G16" t="n">
-        <v>195.3979334832982</v>
+        <v>2949.762394878265</v>
       </c>
       <c r="H16" t="n">
-        <v>179.8137021520933</v>
+        <v>2961.264938373056</v>
       </c>
       <c r="I16" t="n">
-        <v>223.5256608571924</v>
+        <v>3206.238994396926</v>
       </c>
       <c r="J16" t="n">
-        <v>224.3303883474233</v>
+        <v>3822.019752372274</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3101.856167357677</v>
+        <v>212.2127966195529</v>
       </c>
       <c r="C17" t="n">
-        <v>3350.017543582269</v>
+        <v>197.5681176484451</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.41</v>
+        <v>7.41</v>
       </c>
       <c r="E17" t="n">
-        <v>96.66890102150535</v>
+        <v>11.55440508780838</v>
       </c>
       <c r="F17" t="n">
-        <v>235.6447843277602</v>
+        <v>12.53136109583805</v>
       </c>
       <c r="G17" t="n">
-        <v>2949.762394878265</v>
+        <v>195.3979334832982</v>
       </c>
       <c r="H17" t="n">
-        <v>2961.264938373056</v>
+        <v>179.8137021520933</v>
       </c>
       <c r="I17" t="n">
-        <v>3206.238994396926</v>
+        <v>223.5256608571924</v>
       </c>
       <c r="J17" t="n">
-        <v>3822.019752372274</v>
+        <v>224.3303883474233</v>
       </c>
     </row>
     <row r="18">
@@ -1299,69 +1299,545 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>highaccel_count_full_all</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1854.429759905351</v>
+        <v>64.01852954116359</v>
       </c>
       <c r="C26" t="n">
-        <v>1898.640765806154</v>
+        <v>62.24959871793922</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.33</v>
+        <v>2.84</v>
       </c>
       <c r="E26" t="n">
-        <v>80.93456021654049</v>
+        <v>5.20065676264919</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94696992923298</v>
+        <v>3.277482920213079</v>
       </c>
       <c r="G26" t="n">
-        <v>1710.777219034276</v>
+        <v>55.23046715121213</v>
       </c>
       <c r="H26" t="n">
-        <v>1771.447233404109</v>
+        <v>56.6623185117708</v>
       </c>
       <c r="I26" t="n">
-        <v>1900.827443428021</v>
+        <v>68.60283618067439</v>
       </c>
       <c r="J26" t="n">
-        <v>1990.21486077696</v>
+        <v>66.92139647224181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>total_metersperminute_full_otip</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1854.429759905351</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1898.640765806154</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="E27" t="n">
+        <v>80.93456021654049</v>
+      </c>
+      <c r="F27" t="n">
+        <v>53.94696992923298</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1710.777219034276</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1771.447233404109</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1900.827443428021</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1990.21486077696</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>highdecel_count_full_all</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>150.4994073400977</v>
+      </c>
+      <c r="C28" t="n">
+        <v>153.4089909332751</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.65149590027513</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.048299869578941</v>
+      </c>
+      <c r="G28" t="n">
+        <v>138.3932627864787</v>
+      </c>
+      <c r="H28" t="n">
+        <v>145.4461546644024</v>
+      </c>
+      <c r="I28" t="n">
+        <v>162.0473069603744</v>
+      </c>
+      <c r="J28" t="n">
+        <v>169.212898593574</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>medaccel_count_full_all</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1036.710149652919</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1054.171502221885</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13.13270641296326</v>
+      </c>
+      <c r="F29" t="n">
+        <v>18.35008164869249</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1026.938123561755</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1020.74291875804</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1051.554767565639</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1088.759401937111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>sprint_count_full_all</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>88.43482101811608</v>
+      </c>
+      <c r="C30" t="n">
+        <v>89.84853943724046</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.504426500192894</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.545015069176541</v>
+      </c>
+      <c r="G30" t="n">
+        <v>81.59013494508247</v>
+      </c>
+      <c r="H30" t="n">
+        <v>79.46233176170961</v>
+      </c>
+      <c r="I30" t="n">
+        <v>95.18758333784231</v>
+      </c>
+      <c r="J30" t="n">
+        <v>99.89499369977753</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
           <t>total_metersperminute_full_tip</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>1759.309419383992</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>1785.157316325987</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>-1.45</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E31" t="n">
         <v>68.34387076500634</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F31" t="n">
         <v>59.49952442158469</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G31" t="n">
         <v>1642.562416926959</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>1697.513342961181</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>1813.472520353595</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J31" t="n">
         <v>1917.084750358108</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>psv99</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>358.3587389697205</v>
+      </c>
+      <c r="C32" t="n">
+        <v>362.6029586435135</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16.1618311469886</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.889284818201046</v>
+      </c>
+      <c r="G32" t="n">
+        <v>337.581470170531</v>
+      </c>
+      <c r="H32" t="n">
+        <v>349.2217523827069</v>
+      </c>
+      <c r="I32" t="n">
+        <v>376.9914152822696</v>
+      </c>
+      <c r="J32" t="n">
+        <v>379.6420174970298</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>total_metersperminute_full_all</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1467.915128687428</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1482.665020609128</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="E33" t="n">
+        <v>46.88355439183032</v>
+      </c>
+      <c r="F33" t="n">
+        <v>41.14863069641145</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1398.95043196687</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1414.563064016289</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1520.66364081299</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1558.253250006369</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>meddecel_count_full_all</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>856.3854211848644</v>
+      </c>
+      <c r="C34" t="n">
+        <v>863.9768443859568</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13.84175151793503</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13.45453799333878</v>
+      </c>
+      <c r="G34" t="n">
+        <v>839.751211908086</v>
+      </c>
+      <c r="H34" t="n">
+        <v>831.952186859352</v>
+      </c>
+      <c r="I34" t="n">
+        <v>870.5006003070322</v>
+      </c>
+      <c r="J34" t="n">
+        <v>885.0464636511241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>hsr_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5152.708273705066</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5194.68376096633</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>197.4592798991305</v>
+      </c>
+      <c r="F35" t="n">
+        <v>212.2926671275888</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4946.909167362483</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4887.994623704785</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5375.009235331764</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5603.880245002479</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>hi_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6684.369914484892</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6733.326361891136</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="E36" t="n">
+        <v>345.6754561857296</v>
+      </c>
+      <c r="F36" t="n">
+        <v>281.5000371572231</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6323.785658895358</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6316.044879787938</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7043.33210958169</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7175.391784482549</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>hi_count_full_all</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>586.4490446983772</v>
+      </c>
+      <c r="C37" t="n">
+        <v>589.789154483561</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E37" t="n">
+        <v>22.06536729230082</v>
+      </c>
+      <c r="F37" t="n">
+        <v>22.31730342174017</v>
+      </c>
+      <c r="G37" t="n">
+        <v>557.5263776349524</v>
+      </c>
+      <c r="H37" t="n">
+        <v>558.7246739002793</v>
+      </c>
+      <c r="I37" t="n">
+        <v>612.3824791739308</v>
+      </c>
+      <c r="J37" t="n">
+        <v>630.2000857110838</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>sprint_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1531.661640779826</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1538.642600924807</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E38" t="n">
+        <v>175.2120404592917</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100.6629281253413</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1311.192578310617</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1333.496865591414</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1691.404988595376</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1697.329065606786</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>hsr_count_full_all</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>498.0142236802611</v>
+      </c>
+      <c r="C39" t="n">
+        <v>499.9406150463204</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="E39" t="n">
+        <v>15.88777695840753</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17.12807449190218</v>
+      </c>
+      <c r="G39" t="n">
+        <v>475.9362426898699</v>
+      </c>
+      <c r="H39" t="n">
+        <v>479.2623421385697</v>
+      </c>
+      <c r="I39" t="n">
+        <v>517.1948958360886</v>
+      </c>
+      <c r="J39" t="n">
+        <v>530.3050920113063</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>running_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>13841.85545268292</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13893.78291834627</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="E40" t="n">
+        <v>631.0648817821947</v>
+      </c>
+      <c r="F40" t="n">
+        <v>580.2522196518806</v>
+      </c>
+      <c r="G40" t="n">
+        <v>13119.47707968072</v>
+      </c>
+      <c r="H40" t="n">
+        <v>13116.43486990435</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14440.29166203201</v>
+      </c>
+      <c r="J40" t="n">
+        <v>14949.86472154682</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>total_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>101600.5653035157</v>
+      </c>
+      <c r="C41" t="n">
+        <v>101949.6126464969</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E41" t="n">
+        <v>639.822932365716</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1631.687361247225</v>
+      </c>
+      <c r="G41" t="n">
+        <v>101121.5096110575</v>
+      </c>
+      <c r="H41" t="n">
+        <v>99233.95272570745</v>
+      </c>
+      <c r="I41" t="n">
+        <v>102631.618022524</v>
+      </c>
+      <c r="J41" t="n">
+        <v>104631.0950484905</v>
       </c>
     </row>
   </sheetData>

--- a/Métriques discriminantes/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,1361 +483,1327 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.69628049283338</v>
+        <v>33.89874227384239</v>
       </c>
       <c r="C2" t="n">
-        <v>19.59184374391782</v>
+        <v>31.80792580994978</v>
       </c>
       <c r="D2" t="n">
-        <v>15.85</v>
+        <v>6.57</v>
       </c>
       <c r="E2" t="n">
-        <v>1.792922429939073</v>
+        <v>3.593151491989966</v>
       </c>
       <c r="F2" t="n">
-        <v>1.43580076626216</v>
+        <v>2.515979037211216</v>
       </c>
       <c r="G2" t="n">
-        <v>20.71681271646442</v>
+        <v>27.6134322896471</v>
       </c>
       <c r="H2" t="n">
-        <v>17.62620049982698</v>
+        <v>27.8787330625179</v>
       </c>
       <c r="I2" t="n">
-        <v>25.17144328777763</v>
+        <v>36.24281656089839</v>
       </c>
       <c r="J2" t="n">
-        <v>22.42705974676062</v>
+        <v>35.79936159726309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267.4500914142426</v>
+        <v>35.06103400136194</v>
       </c>
       <c r="C3" t="n">
-        <v>236.2798363565878</v>
+        <v>32.95342662300614</v>
       </c>
       <c r="D3" t="n">
-        <v>13.19</v>
+        <v>6.4</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0493101657786</v>
+        <v>5.267421980823646</v>
       </c>
       <c r="F3" t="n">
-        <v>14.69601210956329</v>
+        <v>2.527454566956793</v>
       </c>
       <c r="G3" t="n">
-        <v>234.4034127069872</v>
+        <v>26.08573988946982</v>
       </c>
       <c r="H3" t="n">
-        <v>216.5225582828384</v>
+        <v>29.07908629015964</v>
       </c>
       <c r="I3" t="n">
-        <v>288.9744933766121</v>
+        <v>39.99835715942323</v>
       </c>
       <c r="J3" t="n">
-        <v>266.3084704183372</v>
+        <v>36.26751528493816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37054.67228683398</v>
+        <v>3554.21206818639</v>
       </c>
       <c r="C4" t="n">
-        <v>32940.96424181578</v>
+        <v>3737.946029468879</v>
       </c>
       <c r="D4" t="n">
-        <v>12.49</v>
+        <v>-4.92</v>
       </c>
       <c r="E4" t="n">
-        <v>2834.865781644949</v>
+        <v>298.9165121524956</v>
       </c>
       <c r="F4" t="n">
-        <v>1820.850216594581</v>
+        <v>266.1275773295736</v>
       </c>
       <c r="G4" t="n">
-        <v>32499.04413726227</v>
+        <v>3023.155233567744</v>
       </c>
       <c r="H4" t="n">
-        <v>30119.38859742292</v>
+        <v>3289.016316365425</v>
       </c>
       <c r="I4" t="n">
-        <v>39835.65461768988</v>
+        <v>3736.73677497021</v>
       </c>
       <c r="J4" t="n">
-        <v>35727.34822351123</v>
+        <v>4362.202445598801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>269.1145739129819</v>
+        <v>4816.733637518599</v>
       </c>
       <c r="C5" t="n">
-        <v>305.5568831931324</v>
+        <v>5018.918913827517</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.93</v>
+        <v>-4.03</v>
       </c>
       <c r="E5" t="n">
-        <v>17.82524539767594</v>
+        <v>491.0165772980646</v>
       </c>
       <c r="F5" t="n">
-        <v>15.21740075553104</v>
+        <v>362.5428385319282</v>
       </c>
       <c r="G5" t="n">
-        <v>246.6065971555531</v>
+        <v>3945.960073781305</v>
       </c>
       <c r="H5" t="n">
-        <v>273.5815285978683</v>
+        <v>4352.604269908898</v>
       </c>
       <c r="I5" t="n">
-        <v>291.1439333807644</v>
+        <v>5099.610112365437</v>
       </c>
       <c r="J5" t="n">
-        <v>327.9275164545384</v>
+        <v>5657.397557003434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5879.473802624165</v>
+        <v>432.4094432790978</v>
       </c>
       <c r="C6" t="n">
-        <v>5282.933986834801</v>
+        <v>449.0894647802614</v>
       </c>
       <c r="D6" t="n">
-        <v>11.29</v>
+        <v>-3.71</v>
       </c>
       <c r="E6" t="n">
-        <v>454.8298805981254</v>
+        <v>13.91462916511648</v>
       </c>
       <c r="F6" t="n">
-        <v>392.541347497087</v>
+        <v>13.06522748710562</v>
       </c>
       <c r="G6" t="n">
-        <v>5378.734706132076</v>
+        <v>410.2150494024381</v>
       </c>
       <c r="H6" t="n">
-        <v>4728.006377961241</v>
+        <v>432.6673088515174</v>
       </c>
       <c r="I6" t="n">
-        <v>6443.928726638457</v>
+        <v>445.1903495349017</v>
       </c>
       <c r="J6" t="n">
-        <v>5968.638919531206</v>
+        <v>476.4655149812743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.45244903266887</v>
+        <v>80.55625354059624</v>
       </c>
       <c r="C7" t="n">
-        <v>36.55165413187867</v>
+        <v>78.09889767017576</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.21</v>
+        <v>3.15</v>
       </c>
       <c r="E7" t="n">
-        <v>1.776669606031176</v>
+        <v>6.306334563032284</v>
       </c>
       <c r="F7" t="n">
-        <v>4.055364948317954</v>
+        <v>3.37456525563057</v>
       </c>
       <c r="G7" t="n">
-        <v>30.44134379420773</v>
+        <v>69.91851227417057</v>
       </c>
       <c r="H7" t="n">
-        <v>30.51344935987909</v>
+        <v>71.23327543832181</v>
       </c>
       <c r="I7" t="n">
-        <v>34.39571636840808</v>
+        <v>85.62522561929602</v>
       </c>
       <c r="J7" t="n">
-        <v>44.37879488398616</v>
+        <v>85.5461487068775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33786.21131442336</v>
+        <v>61.17523110890058</v>
       </c>
       <c r="C8" t="n">
-        <v>37682.72032574104</v>
+        <v>63.16292791950978</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.34</v>
+        <v>-3.15</v>
       </c>
       <c r="E8" t="n">
-        <v>2157.716089708204</v>
+        <v>9.443604811681015</v>
       </c>
       <c r="F8" t="n">
-        <v>1559.35321079363</v>
+        <v>5.469065666116857</v>
       </c>
       <c r="G8" t="n">
-        <v>31440.17263207441</v>
+        <v>45.43444156902429</v>
       </c>
       <c r="H8" t="n">
-        <v>35375.18827407724</v>
+        <v>53.32013346493954</v>
       </c>
       <c r="I8" t="n">
-        <v>36289.31985932789</v>
+        <v>68.73409139249355</v>
       </c>
       <c r="J8" t="n">
-        <v>40668.16497309941</v>
+        <v>71.10503553185363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>372.6377557685071</v>
+        <v>394.5486465400862</v>
       </c>
       <c r="C9" t="n">
-        <v>415.4714190587681</v>
+        <v>406.5787832890011</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.31</v>
+        <v>-2.96</v>
       </c>
       <c r="E9" t="n">
-        <v>22.73537672504192</v>
+        <v>42.87086025318681</v>
       </c>
       <c r="F9" t="n">
-        <v>18.16199331437614</v>
+        <v>26.51840201127461</v>
       </c>
       <c r="G9" t="n">
-        <v>343.6188554092861</v>
+        <v>320.7623345889883</v>
       </c>
       <c r="H9" t="n">
-        <v>380.8147797481968</v>
+        <v>360.6312573060986</v>
       </c>
       <c r="I9" t="n">
-        <v>404.7662379128714</v>
+        <v>422.0358347334695</v>
       </c>
       <c r="J9" t="n">
-        <v>443.1763366070703</v>
+        <v>455.3203156104226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.0251598776891</v>
+        <v>333.3728052379568</v>
       </c>
       <c r="C10" t="n">
-        <v>337.3442341519182</v>
+        <v>343.4156053047926</v>
       </c>
       <c r="D10" t="n">
-        <v>9.98</v>
+        <v>-2.92</v>
       </c>
       <c r="E10" t="n">
-        <v>21.70110919672165</v>
+        <v>33.99116666112878</v>
       </c>
       <c r="F10" t="n">
-        <v>18.55005962974237</v>
+        <v>21.62435113784062</v>
       </c>
       <c r="G10" t="n">
-        <v>336.8281547835174</v>
+        <v>275.322926229849</v>
       </c>
       <c r="H10" t="n">
-        <v>312.2836216826745</v>
+        <v>307.3150987957422</v>
       </c>
       <c r="I10" t="n">
-        <v>387.1249594865291</v>
+        <v>359.7416869029911</v>
       </c>
       <c r="J10" t="n">
-        <v>373.9988628839857</v>
+        <v>387.2008964774965</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>634.1503752377159</v>
+        <v>64.01852954116359</v>
       </c>
       <c r="C11" t="n">
-        <v>700.9040554317363</v>
+        <v>62.24959871793922</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.52</v>
+        <v>2.84</v>
       </c>
       <c r="E11" t="n">
-        <v>48.41079773355668</v>
+        <v>5.20065676264919</v>
       </c>
       <c r="F11" t="n">
-        <v>68.80240403557058</v>
+        <v>3.277482920213079</v>
       </c>
       <c r="G11" t="n">
-        <v>566.7822713398243</v>
+        <v>55.23046715121213</v>
       </c>
       <c r="H11" t="n">
-        <v>601.7674645570363</v>
+        <v>56.6623185117708</v>
       </c>
       <c r="I11" t="n">
-        <v>683.3895994405326</v>
+        <v>68.60283618067439</v>
       </c>
       <c r="J11" t="n">
-        <v>839.1136476804604</v>
+        <v>66.92139647224181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6401.619088002421</v>
+        <v>60.58978693114883</v>
       </c>
       <c r="C12" t="n">
-        <v>7029.398236223848</v>
+        <v>62.34715092806853</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.93</v>
+        <v>-2.82</v>
       </c>
       <c r="E12" t="n">
-        <v>536.4149841239592</v>
+        <v>6.850067747896873</v>
       </c>
       <c r="F12" t="n">
-        <v>368.4574788043466</v>
+        <v>3.583992215206042</v>
       </c>
       <c r="G12" t="n">
-        <v>5854.851126469145</v>
+        <v>51.04056482905236</v>
       </c>
       <c r="H12" t="n">
-        <v>6460.413959497083</v>
+        <v>55.73386987055628</v>
       </c>
       <c r="I12" t="n">
-        <v>7294.948835296573</v>
+        <v>68.84598299661792</v>
       </c>
       <c r="J12" t="n">
-        <v>7913.337624110826</v>
+        <v>67.08900198179315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>259.2020930283394</v>
+        <v>541.4357373350766</v>
       </c>
       <c r="C13" t="n">
-        <v>283.0293568729629</v>
+        <v>555.0669001122453</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.42</v>
+        <v>-2.46</v>
       </c>
       <c r="E13" t="n">
-        <v>10.00042652703763</v>
+        <v>32.650353993908</v>
       </c>
       <c r="F13" t="n">
-        <v>19.52521997392661</v>
+        <v>17.9666401954695</v>
       </c>
       <c r="G13" t="n">
-        <v>244.0661930542341</v>
+        <v>485.788091982309</v>
       </c>
       <c r="H13" t="n">
-        <v>253.3398223620428</v>
+        <v>523.8832427825807</v>
       </c>
       <c r="I13" t="n">
-        <v>266.9661071092552</v>
+        <v>570.0709343495706</v>
       </c>
       <c r="J13" t="n">
-        <v>326.2932835732311</v>
+        <v>590.2347086977678</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.54145178760992</v>
+        <v>605.1489012004753</v>
       </c>
       <c r="C14" t="n">
-        <v>36.57610884996854</v>
+        <v>619.8367992604511</v>
       </c>
       <c r="D14" t="n">
-        <v>8.109999999999999</v>
+        <v>-2.37</v>
       </c>
       <c r="E14" t="n">
-        <v>1.518705627968944</v>
+        <v>28.82191872404178</v>
       </c>
       <c r="F14" t="n">
-        <v>2.333131123601944</v>
+        <v>16.92208450364834</v>
       </c>
       <c r="G14" t="n">
-        <v>37.37377923268704</v>
+        <v>561.2223015229275</v>
       </c>
       <c r="H14" t="n">
-        <v>31.89491258960997</v>
+        <v>592.163346316959</v>
       </c>
       <c r="I14" t="n">
-        <v>41.63703451013856</v>
+        <v>634.4869364034123</v>
       </c>
       <c r="J14" t="n">
-        <v>40.0997764924509</v>
+        <v>646.9279373404441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>226.7496439956706</v>
+        <v>1854.429759905351</v>
       </c>
       <c r="C15" t="n">
-        <v>246.4777027410842</v>
+        <v>1898.640765806154</v>
       </c>
       <c r="D15" t="n">
-        <v>-8</v>
+        <v>-2.33</v>
       </c>
       <c r="E15" t="n">
-        <v>8.716676774260581</v>
+        <v>80.93456021654049</v>
       </c>
       <c r="F15" t="n">
-        <v>15.66507523927977</v>
+        <v>53.94696992923298</v>
       </c>
       <c r="G15" t="n">
-        <v>213.6248492600263</v>
+        <v>1710.777219034276</v>
       </c>
       <c r="H15" t="n">
-        <v>221.8202145568863</v>
+        <v>1771.447233404109</v>
       </c>
       <c r="I15" t="n">
-        <v>234.3660304445436</v>
+        <v>1900.827443428021</v>
       </c>
       <c r="J15" t="n">
-        <v>282.3192247311213</v>
+        <v>1990.21486077696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3101.856167357677</v>
+        <v>55632.92760544742</v>
       </c>
       <c r="C16" t="n">
-        <v>3350.017543582269</v>
+        <v>56959.21772041785</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.41</v>
+        <v>-2.33</v>
       </c>
       <c r="E16" t="n">
-        <v>96.66890102150535</v>
+        <v>2428.057216761007</v>
       </c>
       <c r="F16" t="n">
-        <v>235.6447843277602</v>
+        <v>1618.426387444185</v>
       </c>
       <c r="G16" t="n">
-        <v>2949.762394878265</v>
+        <v>51323.31143864462</v>
       </c>
       <c r="H16" t="n">
-        <v>2961.264938373056</v>
+        <v>53143.33202862707</v>
       </c>
       <c r="I16" t="n">
-        <v>3206.238994396926</v>
+        <v>57024.84696991893</v>
       </c>
       <c r="J16" t="n">
-        <v>3822.019752372274</v>
+        <v>59706.43920198223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.2127966195529</v>
+        <v>8841.44556805604</v>
       </c>
       <c r="C17" t="n">
-        <v>197.5681176484451</v>
+        <v>9019.18998203987</v>
       </c>
       <c r="D17" t="n">
-        <v>7.41</v>
+        <v>-1.97</v>
       </c>
       <c r="E17" t="n">
-        <v>11.55440508780838</v>
+        <v>651.3020006734758</v>
       </c>
       <c r="F17" t="n">
-        <v>12.53136109583805</v>
+        <v>625.5682533356937</v>
       </c>
       <c r="G17" t="n">
-        <v>195.3979334832982</v>
+        <v>7816.868785075855</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8137021520933</v>
+        <v>7962.713426468428</v>
       </c>
       <c r="I17" t="n">
-        <v>223.5256608571924</v>
+        <v>9428.574685466589</v>
       </c>
       <c r="J17" t="n">
-        <v>224.3303883474233</v>
+        <v>10630.63742352027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>46.80386024210456</v>
+        <v>150.4994073400977</v>
       </c>
       <c r="C18" t="n">
-        <v>50.48564294490427</v>
+        <v>153.4089909332751</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.29</v>
+        <v>-1.9</v>
       </c>
       <c r="E18" t="n">
-        <v>3.854149654089232</v>
+        <v>9.65149590027513</v>
       </c>
       <c r="F18" t="n">
-        <v>2.3877813313263</v>
+        <v>6.048299869578941</v>
       </c>
       <c r="G18" t="n">
-        <v>42.72054323117423</v>
+        <v>138.3932627864787</v>
       </c>
       <c r="H18" t="n">
-        <v>46.66148726448649</v>
+        <v>145.4461546644024</v>
       </c>
       <c r="I18" t="n">
-        <v>52.40385255022856</v>
+        <v>162.0473069603744</v>
       </c>
       <c r="J18" t="n">
-        <v>55.35588011076818</v>
+        <v>169.212898593574</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>250.8776109816052</v>
+        <v>55.92444470780051</v>
       </c>
       <c r="C19" t="n">
-        <v>233.8312955270938</v>
+        <v>56.97268635388353</v>
       </c>
       <c r="D19" t="n">
-        <v>7.29</v>
+        <v>-1.84</v>
       </c>
       <c r="E19" t="n">
-        <v>15.48500462907599</v>
+        <v>6.465647955637387</v>
       </c>
       <c r="F19" t="n">
-        <v>15.98696555640467</v>
+        <v>5.447034859644468</v>
       </c>
       <c r="G19" t="n">
-        <v>228.7431374895635</v>
+        <v>47.01181377114263</v>
       </c>
       <c r="H19" t="n">
-        <v>211.1445667344829</v>
+        <v>48.48053907632496</v>
       </c>
       <c r="I19" t="n">
-        <v>265.7318283567741</v>
+        <v>64.76271500583196</v>
       </c>
       <c r="J19" t="n">
-        <v>268.5063663801603</v>
+        <v>66.55274938359756</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>757.7623611774042</v>
+        <v>1036.710149652919</v>
       </c>
       <c r="C20" t="n">
-        <v>707.0020769606567</v>
+        <v>1054.171502221885</v>
       </c>
       <c r="D20" t="n">
-        <v>7.18</v>
+        <v>-1.66</v>
       </c>
       <c r="E20" t="n">
-        <v>113.4588137231953</v>
+        <v>13.13270641296326</v>
       </c>
       <c r="F20" t="n">
-        <v>77.85898845033138</v>
+        <v>18.35008164869249</v>
       </c>
       <c r="G20" t="n">
-        <v>617.2524073440741</v>
+        <v>1026.938123561755</v>
       </c>
       <c r="H20" t="n">
-        <v>609.0852414515706</v>
+        <v>1020.74291875804</v>
       </c>
       <c r="I20" t="n">
-        <v>847.4837575814532</v>
+        <v>1051.554767565639</v>
       </c>
       <c r="J20" t="n">
-        <v>862.4096956328447</v>
+        <v>1088.759401937111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2467.705792119961</v>
+        <v>4298.319412951832</v>
       </c>
       <c r="C21" t="n">
-        <v>2649.113488150533</v>
+        <v>4230.344428031307</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.85</v>
+        <v>1.61</v>
       </c>
       <c r="E21" t="n">
-        <v>96.73756003249434</v>
+        <v>443.9854399119193</v>
       </c>
       <c r="F21" t="n">
-        <v>173.2540760679061</v>
+        <v>282.3351895904502</v>
       </c>
       <c r="G21" t="n">
-        <v>2330.013959716519</v>
+        <v>3779.574031251092</v>
       </c>
       <c r="H21" t="n">
-        <v>2320.804939557562</v>
+        <v>3741.338638210906</v>
       </c>
       <c r="I21" t="n">
-        <v>2551.357721439193</v>
+        <v>4817.408958527965</v>
       </c>
       <c r="J21" t="n">
-        <v>2996.468541485473</v>
+        <v>4715.681047423283</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3000.154345636548</v>
+        <v>88.43482101811608</v>
       </c>
       <c r="C22" t="n">
-        <v>2813.741395752376</v>
+        <v>89.84853943724046</v>
       </c>
       <c r="D22" t="n">
-        <v>6.63</v>
+        <v>-1.57</v>
       </c>
       <c r="E22" t="n">
-        <v>253.2440063803396</v>
+        <v>6.504426500192894</v>
       </c>
       <c r="F22" t="n">
-        <v>210.4249249021005</v>
+        <v>5.545015069176541</v>
       </c>
       <c r="G22" t="n">
-        <v>2625.158861871064</v>
+        <v>81.59013494508247</v>
       </c>
       <c r="H22" t="n">
-        <v>2535.877616858636</v>
+        <v>79.46233176170961</v>
       </c>
       <c r="I22" t="n">
-        <v>3228.978094856374</v>
+        <v>95.18758333784231</v>
       </c>
       <c r="J22" t="n">
-        <v>3236.444163688667</v>
+        <v>99.89499369977753</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.66481436205228</v>
+        <v>1759.309419383992</v>
       </c>
       <c r="C23" t="n">
-        <v>36.26317787864867</v>
+        <v>1785.157316325987</v>
       </c>
       <c r="D23" t="n">
-        <v>6.62</v>
+        <v>-1.45</v>
       </c>
       <c r="E23" t="n">
-        <v>4.186344486410466</v>
+        <v>68.34387076500634</v>
       </c>
       <c r="F23" t="n">
-        <v>3.660349445044858</v>
+        <v>59.49952442158469</v>
       </c>
       <c r="G23" t="n">
-        <v>33.34520400626526</v>
+        <v>1642.562416926959</v>
       </c>
       <c r="H23" t="n">
-        <v>31.33086458238964</v>
+        <v>1697.513342961181</v>
       </c>
       <c r="I23" t="n">
-        <v>42.20616749958173</v>
+        <v>1813.472520353595</v>
       </c>
       <c r="J23" t="n">
-        <v>44.17597803273693</v>
+        <v>1917.084750358108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2242.391984459144</v>
+        <v>52779.28488088788</v>
       </c>
       <c r="C24" t="n">
-        <v>2106.739318791719</v>
+        <v>53554.73656590997</v>
       </c>
       <c r="D24" t="n">
-        <v>6.44</v>
+        <v>-1.45</v>
       </c>
       <c r="E24" t="n">
-        <v>148.1737254181544</v>
+        <v>2050.335192990895</v>
       </c>
       <c r="F24" t="n">
-        <v>146.6294155014505</v>
+        <v>1784.95819104859</v>
       </c>
       <c r="G24" t="n">
-        <v>2007.90645452699</v>
+        <v>49276.83658583689</v>
       </c>
       <c r="H24" t="n">
-        <v>1923.973250434202</v>
+        <v>50925.39640995775</v>
       </c>
       <c r="I24" t="n">
-        <v>2381.49433727492</v>
+        <v>54404.2042170419</v>
       </c>
       <c r="J24" t="n">
-        <v>2374.034468055822</v>
+        <v>57512.47780835401</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.51677973009632</v>
+        <v>1262.520928711238</v>
       </c>
       <c r="C25" t="n">
-        <v>20.45124364034154</v>
+        <v>1280.973969883867</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.57</v>
+        <v>-1.44</v>
       </c>
       <c r="E25" t="n">
-        <v>1.556412175395419</v>
+        <v>207.3030609732467</v>
       </c>
       <c r="F25" t="n">
-        <v>1.209285711414254</v>
+        <v>134.2963802130961</v>
       </c>
       <c r="G25" t="n">
-        <v>17.43523994079843</v>
+        <v>922.8036267343506</v>
       </c>
       <c r="H25" t="n">
-        <v>18.45047282502311</v>
+        <v>1063.589260984218</v>
       </c>
       <c r="I25" t="n">
-        <v>21.82375188926511</v>
+        <v>1437.426241148565</v>
       </c>
       <c r="J25" t="n">
-        <v>22.32968082193736</v>
+        <v>1546.038141342729</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.01852954116359</v>
+        <v>5439.66081381876</v>
       </c>
       <c r="C26" t="n">
-        <v>62.24959871793922</v>
+        <v>5369.516631328381</v>
       </c>
       <c r="D26" t="n">
-        <v>2.84</v>
+        <v>1.31</v>
       </c>
       <c r="E26" t="n">
-        <v>5.20065676264919</v>
+        <v>548.3988076877841</v>
       </c>
       <c r="F26" t="n">
-        <v>3.277482920213079</v>
+        <v>373.8768310980415</v>
       </c>
       <c r="G26" t="n">
-        <v>55.23046715121213</v>
+        <v>4785.29067014152</v>
       </c>
       <c r="H26" t="n">
-        <v>56.6623185117708</v>
+        <v>4780.742432292001</v>
       </c>
       <c r="I26" t="n">
-        <v>68.60283618067439</v>
+        <v>6021.185431436849</v>
       </c>
       <c r="J26" t="n">
-        <v>66.92139647224181</v>
+        <v>6074.294541973538</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1854.429759905351</v>
+        <v>10831.29179168015</v>
       </c>
       <c r="C27" t="n">
-        <v>1898.640765806154</v>
+        <v>10954.5265959301</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.33</v>
+        <v>-1.12</v>
       </c>
       <c r="E27" t="n">
-        <v>80.93456021654049</v>
+        <v>989.4896517743744</v>
       </c>
       <c r="F27" t="n">
-        <v>53.94696992923298</v>
+        <v>533.5375682190456</v>
       </c>
       <c r="G27" t="n">
-        <v>1710.777219034276</v>
+        <v>9416.340257067213</v>
       </c>
       <c r="H27" t="n">
-        <v>1771.447233404109</v>
+        <v>9800.633684386576</v>
       </c>
       <c r="I27" t="n">
-        <v>1900.827443428021</v>
+        <v>11653.36557441619</v>
       </c>
       <c r="J27" t="n">
-        <v>1990.21486077696</v>
+        <v>11735.93771220226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.4994073400977</v>
+        <v>1467.915128687428</v>
       </c>
       <c r="C28" t="n">
-        <v>153.4089909332751</v>
+        <v>1482.665020609128</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.9</v>
+        <v>-0.99</v>
       </c>
       <c r="E28" t="n">
-        <v>9.65149590027513</v>
+        <v>46.88355439183032</v>
       </c>
       <c r="F28" t="n">
-        <v>6.048299869578941</v>
+        <v>41.14863069641145</v>
       </c>
       <c r="G28" t="n">
-        <v>138.3932627864787</v>
+        <v>1398.95043196687</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4461546644024</v>
+        <v>1414.563064016289</v>
       </c>
       <c r="I28" t="n">
-        <v>162.0473069603744</v>
+        <v>1520.66364081299</v>
       </c>
       <c r="J28" t="n">
-        <v>169.212898593574</v>
+        <v>1558.253250006369</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1036.710149652919</v>
+        <v>856.3854211848644</v>
       </c>
       <c r="C29" t="n">
-        <v>1054.171502221885</v>
+        <v>863.9768443859568</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.66</v>
+        <v>-0.88</v>
       </c>
       <c r="E29" t="n">
-        <v>13.13270641296326</v>
+        <v>13.84175151793503</v>
       </c>
       <c r="F29" t="n">
-        <v>18.35008164869249</v>
+        <v>13.45453799333878</v>
       </c>
       <c r="G29" t="n">
-        <v>1026.938123561755</v>
+        <v>839.751211908086</v>
       </c>
       <c r="H29" t="n">
-        <v>1020.74291875804</v>
+        <v>831.952186859352</v>
       </c>
       <c r="I29" t="n">
-        <v>1051.554767565639</v>
+        <v>870.5006003070322</v>
       </c>
       <c r="J29" t="n">
-        <v>1088.759401937111</v>
+        <v>885.0464636511241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.43482101811608</v>
+        <v>5152.708273705066</v>
       </c>
       <c r="C30" t="n">
-        <v>89.84853943724046</v>
+        <v>5194.68376096633</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.57</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>6.504426500192894</v>
+        <v>197.4592798991305</v>
       </c>
       <c r="F30" t="n">
-        <v>5.545015069176541</v>
+        <v>212.2926671275888</v>
       </c>
       <c r="G30" t="n">
-        <v>81.59013494508247</v>
+        <v>4946.909167362483</v>
       </c>
       <c r="H30" t="n">
-        <v>79.46233176170961</v>
+        <v>4887.994623704785</v>
       </c>
       <c r="I30" t="n">
-        <v>95.18758333784231</v>
+        <v>5375.009235331764</v>
       </c>
       <c r="J30" t="n">
-        <v>99.89499369977753</v>
+        <v>5603.880245002479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1759.309419383992</v>
+        <v>6684.369914484892</v>
       </c>
       <c r="C31" t="n">
-        <v>1785.157316325987</v>
+        <v>6733.326361891136</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.45</v>
+        <v>-0.73</v>
       </c>
       <c r="E31" t="n">
-        <v>68.34387076500634</v>
+        <v>345.6754561857296</v>
       </c>
       <c r="F31" t="n">
-        <v>59.49952442158469</v>
+        <v>281.5000371572231</v>
       </c>
       <c r="G31" t="n">
-        <v>1642.562416926959</v>
+        <v>6323.785658895358</v>
       </c>
       <c r="H31" t="n">
-        <v>1697.513342961181</v>
+        <v>6316.044879787938</v>
       </c>
       <c r="I31" t="n">
-        <v>1813.472520353595</v>
+        <v>7043.33210958169</v>
       </c>
       <c r="J31" t="n">
-        <v>1917.084750358108</v>
+        <v>7175.391784482549</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>358.3587389697205</v>
+        <v>389.2794838431999</v>
       </c>
       <c r="C32" t="n">
-        <v>362.6029586435135</v>
+        <v>386.7723970045528</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.17</v>
+        <v>0.65</v>
       </c>
       <c r="E32" t="n">
-        <v>16.1618311469886</v>
+        <v>35.7952859616671</v>
       </c>
       <c r="F32" t="n">
-        <v>8.889284818201046</v>
+        <v>21.35659270503934</v>
       </c>
       <c r="G32" t="n">
-        <v>337.581470170531</v>
+        <v>337.4329989009579</v>
       </c>
       <c r="H32" t="n">
-        <v>349.2217523827069</v>
+        <v>350.7370833118496</v>
       </c>
       <c r="I32" t="n">
-        <v>376.9914152822696</v>
+        <v>430.0445093373825</v>
       </c>
       <c r="J32" t="n">
-        <v>379.6420174970298</v>
+        <v>427.7730055214395</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1467.915128687428</v>
+        <v>586.4490446983772</v>
       </c>
       <c r="C33" t="n">
-        <v>1482.665020609128</v>
+        <v>589.789154483561</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.99</v>
+        <v>-0.57</v>
       </c>
       <c r="E33" t="n">
-        <v>46.88355439183032</v>
+        <v>22.06536729230082</v>
       </c>
       <c r="F33" t="n">
-        <v>41.14863069641145</v>
+        <v>22.31730342174017</v>
       </c>
       <c r="G33" t="n">
-        <v>1398.95043196687</v>
+        <v>557.5263776349524</v>
       </c>
       <c r="H33" t="n">
-        <v>1414.563064016289</v>
+        <v>558.7246739002793</v>
       </c>
       <c r="I33" t="n">
-        <v>1520.66364081299</v>
+        <v>612.3824791739308</v>
       </c>
       <c r="J33" t="n">
-        <v>1558.253250006369</v>
+        <v>630.2000857110838</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>856.3854211848644</v>
+        <v>1531.661640779826</v>
       </c>
       <c r="C34" t="n">
-        <v>863.9768443859568</v>
+        <v>1538.642600924807</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.88</v>
+        <v>-0.45</v>
       </c>
       <c r="E34" t="n">
-        <v>13.84175151793503</v>
+        <v>175.2120404592917</v>
       </c>
       <c r="F34" t="n">
-        <v>13.45453799333878</v>
+        <v>100.6629281253413</v>
       </c>
       <c r="G34" t="n">
-        <v>839.751211908086</v>
+        <v>1311.192578310617</v>
       </c>
       <c r="H34" t="n">
-        <v>831.952186859352</v>
+        <v>1333.496865591414</v>
       </c>
       <c r="I34" t="n">
-        <v>870.5006003070322</v>
+        <v>1691.404988595376</v>
       </c>
       <c r="J34" t="n">
-        <v>885.0464636511241</v>
+        <v>1697.329065606786</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5152.708273705066</v>
+        <v>498.0142236802611</v>
       </c>
       <c r="C35" t="n">
-        <v>5194.68376096633</v>
+        <v>499.9406150463204</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.39</v>
       </c>
       <c r="E35" t="n">
-        <v>197.4592798991305</v>
+        <v>15.88777695840753</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2926671275888</v>
+        <v>17.12807449190218</v>
       </c>
       <c r="G35" t="n">
-        <v>4946.909167362483</v>
+        <v>475.9362426898699</v>
       </c>
       <c r="H35" t="n">
-        <v>4887.994623704785</v>
+        <v>479.2623421385697</v>
       </c>
       <c r="I35" t="n">
-        <v>5375.009235331764</v>
+        <v>517.1948958360886</v>
       </c>
       <c r="J35" t="n">
-        <v>5603.880245002479</v>
+        <v>530.3050920113063</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6684.369914484892</v>
+        <v>13841.85545268292</v>
       </c>
       <c r="C36" t="n">
-        <v>6733.326361891136</v>
+        <v>13893.78291834627</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.73</v>
+        <v>-0.37</v>
       </c>
       <c r="E36" t="n">
-        <v>345.6754561857296</v>
+        <v>631.0648817821947</v>
       </c>
       <c r="F36" t="n">
-        <v>281.5000371572231</v>
+        <v>580.2522196518806</v>
       </c>
       <c r="G36" t="n">
-        <v>6323.785658895358</v>
+        <v>13119.47707968072</v>
       </c>
       <c r="H36" t="n">
-        <v>6316.044879787938</v>
+        <v>13116.43486990435</v>
       </c>
       <c r="I36" t="n">
-        <v>7043.33210958169</v>
+        <v>14440.29166203201</v>
       </c>
       <c r="J36" t="n">
-        <v>7175.391784482549</v>
+        <v>14949.86472154682</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>586.4490446983772</v>
+        <v>101600.5653035157</v>
       </c>
       <c r="C37" t="n">
-        <v>589.789154483561</v>
+        <v>101949.6126464969</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.57</v>
+        <v>-0.34</v>
       </c>
       <c r="E37" t="n">
-        <v>22.06536729230082</v>
+        <v>639.822932365716</v>
       </c>
       <c r="F37" t="n">
-        <v>22.31730342174017</v>
+        <v>1631.687361247225</v>
       </c>
       <c r="G37" t="n">
-        <v>557.5263776349524</v>
+        <v>101121.5096110575</v>
       </c>
       <c r="H37" t="n">
-        <v>558.7246739002793</v>
+        <v>99233.95272570745</v>
       </c>
       <c r="I37" t="n">
-        <v>612.3824791739308</v>
+        <v>102631.618022524</v>
       </c>
       <c r="J37" t="n">
-        <v>630.2000857110838</v>
+        <v>104631.0950484905</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1531.661640779826</v>
+        <v>445.2038186884733</v>
       </c>
       <c r="C38" t="n">
-        <v>1538.642600924807</v>
+        <v>443.7456760820809</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.45</v>
+        <v>0.33</v>
       </c>
       <c r="E38" t="n">
-        <v>175.2120404592917</v>
+        <v>41.94585237237703</v>
       </c>
       <c r="F38" t="n">
-        <v>100.6629281253413</v>
+        <v>26.44676152613387</v>
       </c>
       <c r="G38" t="n">
-        <v>1311.192578310617</v>
+        <v>384.4430387785917</v>
       </c>
       <c r="H38" t="n">
-        <v>1333.496865591414</v>
+        <v>400.3610307063844</v>
       </c>
       <c r="I38" t="n">
-        <v>1691.404988595376</v>
+        <v>494.8039352344929</v>
       </c>
       <c r="J38" t="n">
-        <v>1697.329065606786</v>
+        <v>494.3292684451597</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>498.0142236802611</v>
+        <v>377.9390679823686</v>
       </c>
       <c r="C39" t="n">
-        <v>499.9406150463204</v>
+        <v>379.0133048676233</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.39</v>
+        <v>-0.28</v>
       </c>
       <c r="E39" t="n">
-        <v>15.88777695840753</v>
+        <v>14.76850586500202</v>
       </c>
       <c r="F39" t="n">
-        <v>17.12807449190218</v>
+        <v>14.64903744795269</v>
       </c>
       <c r="G39" t="n">
-        <v>475.9362426898699</v>
+        <v>352.4305807488289</v>
       </c>
       <c r="H39" t="n">
-        <v>479.2623421385697</v>
+        <v>352.0162485507543</v>
       </c>
       <c r="I39" t="n">
-        <v>517.1948958360886</v>
+        <v>390.4404074005697</v>
       </c>
       <c r="J39" t="n">
-        <v>530.3050920113063</v>
+        <v>406.6460415811007</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13841.85545268292</v>
+        <v>1141.340172683106</v>
       </c>
       <c r="C40" t="n">
-        <v>13893.78291834627</v>
+        <v>1139.172595829921</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.37</v>
+        <v>0.19</v>
       </c>
       <c r="E40" t="n">
-        <v>631.0648817821947</v>
+        <v>135.521717558629</v>
       </c>
       <c r="F40" t="n">
-        <v>580.2522196518806</v>
+        <v>102.6626369881032</v>
       </c>
       <c r="G40" t="n">
-        <v>13119.47707968072</v>
+        <v>1005.720599273802</v>
       </c>
       <c r="H40" t="n">
-        <v>13116.43486990435</v>
+        <v>1014.816480196749</v>
       </c>
       <c r="I40" t="n">
-        <v>14440.29166203201</v>
+        <v>1333.066068685359</v>
       </c>
       <c r="J40" t="n">
-        <v>14949.86472154682</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>total_distance_full_all</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>101600.5653035157</v>
-      </c>
-      <c r="C41" t="n">
-        <v>101949.6126464969</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="E41" t="n">
-        <v>639.822932365716</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1631.687361247225</v>
-      </c>
-      <c r="G41" t="n">
-        <v>101121.5096110575</v>
-      </c>
-      <c r="H41" t="n">
-        <v>99233.95272570745</v>
-      </c>
-      <c r="I41" t="n">
-        <v>102631.618022524</v>
-      </c>
-      <c r="J41" t="n">
-        <v>104631.0950484905</v>
+        <v>1358.609320802696</v>
       </c>
     </row>
   </sheetData>
